--- a/Vestlys verden.xlsx
+++ b/Vestlys verden.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="239">
   <si>
     <t>Ole Aleksander Filibom-bom-bom-bom</t>
   </si>
@@ -182,9 +182,6 @@
     <t xml:space="preserve">Morten og mormor og Stormvind </t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>Prinsessen/Vesla</t>
   </si>
   <si>
@@ -224,12 +221,6 @@
     <t>Bessby</t>
   </si>
   <si>
-    <t>skomakeren</t>
-  </si>
-  <si>
-    <t>bokhandleren</t>
-  </si>
-  <si>
     <t>Magnus</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>Konstance</t>
   </si>
   <si>
-    <t>politimesteren</t>
-  </si>
-  <si>
     <t>Knerten og forundringspakken</t>
   </si>
   <si>
@@ -464,9 +452,6 @@
     <t>Tullemor blir med i mormors syklubb</t>
   </si>
   <si>
-    <t>Bestefar Andersen flytter til Tirilltoppen</t>
-  </si>
-  <si>
     <t>Julefeiring: Guro, Erle, Tullemor, bestefar Andersen og Bjørn</t>
   </si>
   <si>
@@ -516,6 +501,246 @@
   </si>
   <si>
     <t>Aurora og Morten - kjærester?</t>
+  </si>
+  <si>
+    <t>Kaos og Bjørnar</t>
+  </si>
+  <si>
+    <t>Kaos - Karl Oskar</t>
+  </si>
+  <si>
+    <t>Vetleby</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Eva - dagmamma</t>
+  </si>
+  <si>
+    <t>Bjørnar - sønn av dagmammaen</t>
+  </si>
+  <si>
+    <t>Faster</t>
+  </si>
+  <si>
+    <t>Fastermann</t>
+  </si>
+  <si>
+    <t>Lilla Olaug og Lubben</t>
+  </si>
+  <si>
+    <t>Lilla Olaug</t>
+  </si>
+  <si>
+    <t>Lubben - Ludvig</t>
+  </si>
+  <si>
+    <t>Bjarne - faren til Bjørnar</t>
+  </si>
+  <si>
+    <t>Kaosgutten i Vetleby og verden</t>
+  </si>
+  <si>
+    <t>Gammelbudeia - mormor har sommerjobb</t>
+  </si>
+  <si>
+    <t>Bytur</t>
+  </si>
+  <si>
+    <t>Kaos førskolegutt</t>
+  </si>
+  <si>
+    <t>Mor flytter til byen på hybel</t>
+  </si>
+  <si>
+    <t>Bestefar Andersen</t>
+  </si>
+  <si>
+    <t>Kaor og hemmeligheten</t>
+  </si>
+  <si>
+    <t>Tirilltoppen frydefoni kommer</t>
+  </si>
+  <si>
+    <t>mormor m.fl.</t>
+  </si>
+  <si>
+    <t>Mormor Asta</t>
+  </si>
+  <si>
+    <t>sommerferie på Sørlandet</t>
+  </si>
+  <si>
+    <t>Danmark, Århus</t>
+  </si>
+  <si>
+    <t>Rosa (fra Nigeria)</t>
+  </si>
+  <si>
+    <t>Georg (fra England)</t>
+  </si>
+  <si>
+    <t>Odense</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>Knerten Detektiv og Handelsreisende Lillebror</t>
+  </si>
+  <si>
+    <t>Tyven / Don Dunkersen</t>
+  </si>
+  <si>
+    <t>Ole Aleksander, Mons, Ida, Oliver, tante Petra, Bitteliten, bestefar, bestemor</t>
+  </si>
+  <si>
+    <t>Ellen Andrea og mormor</t>
+  </si>
+  <si>
+    <t>Lagertha</t>
+  </si>
+  <si>
+    <t>Pappa Phillip</t>
+  </si>
+  <si>
+    <t>Sirimamma / Lillemamma</t>
+  </si>
+  <si>
+    <t>Lillebror</t>
+  </si>
+  <si>
+    <t>Ellen Andrea / Forundringspakken</t>
+  </si>
+  <si>
+    <t>De åtte ungene</t>
+  </si>
+  <si>
+    <t>Erle</t>
+  </si>
+  <si>
+    <t>Bjørn</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Forundringspakken og Lagertha rasebasse</t>
+  </si>
+  <si>
+    <t>På ferie til Bessby</t>
+  </si>
+  <si>
+    <t>Bestemor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestefar </t>
+  </si>
+  <si>
+    <t>Lillebror /onkel Andreas</t>
+  </si>
+  <si>
+    <t>Bestefaren til Magnus</t>
+  </si>
+  <si>
+    <t>Karoline</t>
+  </si>
+  <si>
+    <t>Lille-Knerten</t>
+  </si>
+  <si>
+    <t>5 på reise</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Kostemarsj på tirilltoppen</t>
+  </si>
+  <si>
+    <t>Bjørnar</t>
+  </si>
+  <si>
+    <t>Kaos</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Geir (mormors ungdomskjæreste og far til moren til de åtte ungene)</t>
+  </si>
+  <si>
+    <t>Mormor og én til hos Rosa</t>
+  </si>
+  <si>
+    <t>Mormors syklubb</t>
+  </si>
+  <si>
+    <t>Lagos, Nigeria</t>
+  </si>
+  <si>
+    <t>Chris, Rosas sønn</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Kjartan</t>
+  </si>
+  <si>
+    <t>Småtassene og andre folk på Tirilltoppen</t>
+  </si>
+  <si>
+    <t>Amund</t>
+  </si>
+  <si>
+    <t>Tore</t>
+  </si>
+  <si>
+    <t>Billy (Tores fetter)</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Monrad tenker</t>
+  </si>
+  <si>
+    <t>(Bryllup og bursdag - gjesteliste)</t>
+  </si>
+  <si>
+    <t>Monrad</t>
+  </si>
+  <si>
+    <t>Geir (Maren og Georges sønn)</t>
+  </si>
+  <si>
+    <t>Leander (Billys kjæreste)</t>
+  </si>
+  <si>
+    <t>Erling (faren til Monrad)</t>
+  </si>
+  <si>
+    <t>Monrad og mormor i den store klubben</t>
+  </si>
+  <si>
+    <t>Oljeplattform</t>
+  </si>
+  <si>
+    <t>Flytter til blokk Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestefar Andersen </t>
+  </si>
+  <si>
+    <t>Fjellet ved Vetleby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilla </t>
   </si>
 </sst>
 </file>
@@ -847,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,872 +1134,1399 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B75" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
     </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B119" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B126" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>134</v>
+        <v>47</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="B131" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="B136" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="B145" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="1" t="s">
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B152" s="1" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B159" s="1" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="1" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+      <c r="B269" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
